--- a/biology/Zoologie/Cephrenes/Cephrenes.xlsx
+++ b/biology/Zoologie/Cephrenes/Cephrenes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cephrenes est un genre de papillons de la famille des Hesperiidae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (15 mars 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (15 mars 2024) :
 Cephrenes augiades (Felder, 1860)
 Cephrenes carna Evans, 1934
 Cephrenes chrysozona (Plötz, 1883)
@@ -547,10 +561,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Cephrenes Waterhouse (d) &amp; Lyell (d), 1914[1],[2].
-Cephrenes a pour synonyme[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Cephrenes Waterhouse (d) &amp; Lyell (d), 1914,.
+Cephrenes a pour synonyme :
 Corone Mabille, 1878</t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) G. A. Waterhouse et Geo. Lyell, The Butterflies of Australia. A monograph of the Australian Rhopalocera, Sydney, Angus &amp; Robertson Ltd., juillet 1914, 239 p. (lire en ligne), p. 206.</t>
         </is>
